--- a/src/Data/Full Time and Part Time Matrix.xlsx
+++ b/src/Data/Full Time and Part Time Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\From Concentrix Drive\Other Stuffs\Help with Arbyn\New Program Outline\New Program Outline\New Program Outline Spyder\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7418324330e40e2c/Documents/GitHub/render-app-schedule/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32B399-AF7F-4D2A-9640-4624A264224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{7F32B399-AF7F-4D2A-9640-4624A264224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB8B1143-D5EE-46BE-9DE0-1D960679719E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{2CA6B07A-1516-4925-B857-D82130A61AD1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CA6B07A-1516-4925-B857-D82130A61AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time Matrix" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Start and Break</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Hour</t>
+  </si>
+  <si>
+    <t>Start at 13, Break at 3rd hour</t>
+  </si>
+  <si>
+    <t>Start at 13, Break at 4th hour</t>
   </si>
 </sst>
 </file>
@@ -504,18 +510,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417B4D99-9D92-4DD3-8E73-36D381889F87}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -605,15 +611,13 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -650,15 +654,13 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -696,14 +698,12 @@
       <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -741,14 +741,12 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -787,13 +785,11 @@
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -832,13 +828,11 @@
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -878,12 +872,10 @@
       <c r="O8" s="1">
         <v>1</v>
       </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -923,12 +915,10 @@
       <c r="O9" s="1">
         <v>1</v>
       </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -969,11 +959,9 @@
       <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1002,91 @@
       <c r="P11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1025,18 +1097,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4FE988-62E8-4699-B74E-2641CAF71FF9}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,9 +1192,7 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1130,7 +1200,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,9 +1231,7 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1171,7 +1239,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1203,16 +1271,14 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,16 +1310,14 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1286,15 +1350,13 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1327,15 +1389,13 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1369,14 +1429,12 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1410,14 +1468,12 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,13 +1508,11 @@
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,11 +1547,87 @@
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
